--- a/設計書/基本設計/DB/task.xlsx
+++ b/設計書/基本設計/DB/task.xlsx
@@ -139,10 +139,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -197,10 +193,6 @@
     <rPh sb="0" eb="3">
       <t>ジュウヨウド</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -243,6 +235,14 @@
     <rPh sb="31" eb="33">
       <t>リヨウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -812,7 +812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -846,14 +846,14 @@
         <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
@@ -867,12 +867,12 @@
         <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
@@ -886,12 +886,12 @@
         <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
@@ -905,12 +905,12 @@
         <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
@@ -924,12 +924,12 @@
         <v>13</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
@@ -943,12 +943,12 @@
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
@@ -962,12 +962,12 @@
         <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="27" x14ac:dyDescent="0.15">
@@ -981,21 +981,22 @@
         <v>25</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>